--- a/Documents/Application_Test_Cases/Application Test Cases Sprint 4 - Med-X.xlsx
+++ b/Documents/Application_Test_Cases/Application Test Cases Sprint 4 - Med-X.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27630"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/mc08144p_pace_edu/Documents/Med-X Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4BD42E-0376-4EB7-8513-0A5B5780FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C627943-FD39-4A31-BA96-DA60AAFBDED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
     <t>A notification message with  associated report ID(s) is displayed in the dropdown</t>
   </si>
   <si>
-    <t xml:space="preserve">Report: 0000                                 A new report has been uploaded </t>
+    <t xml:space="preserve">Report: 0000          A new report has been uploaded </t>
   </si>
   <si>
     <t>Notification of changes to reports in dropdown</t>
@@ -631,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,12 +698,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -906,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,7 +987,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1001,11 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1020,7 +1009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,9 +1225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1277,7 +1265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1383,7 +1371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1525,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1539,20 +1527,20 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" customWidth="1"/>
-    <col min="5" max="5" width="95.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="95.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1569,20 +1557,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="2:10" ht="23.45">
+      <c r="B4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1618,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1635,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1658,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1681,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
@@ -1716,7 +1704,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
         <v>30</v>
@@ -1737,7 +1725,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
@@ -1758,7 +1746,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="11" t="s">
         <v>34</v>
       </c>
@@ -1779,7 +1767,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
@@ -1800,7 +1788,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +1809,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
@@ -1842,7 +1830,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="B18" s="2">
         <v>7</v>
       </c>
@@ -1863,7 +1851,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
         <v>53</v>
@@ -1882,7 +1870,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
@@ -1893,7 +1881,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="2">
         <v>4</v>
       </c>
@@ -1908,7 +1896,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="2">
         <v>5</v>
       </c>
@@ -1923,7 +1911,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="2">
         <v>6</v>
       </c>
@@ -1938,7 +1926,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="2">
         <v>7</v>
       </c>
@@ -1953,7 +1941,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="2">
         <v>8</v>
       </c>
@@ -1968,7 +1956,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="2">
         <v>9</v>
       </c>
@@ -1983,7 +1971,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="2">
         <v>10</v>
       </c>
@@ -1998,7 +1986,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="2">
         <v>11</v>
       </c>
@@ -2013,7 +2001,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="2">
         <v>12</v>
       </c>
@@ -2028,7 +2016,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10">
       <c r="B30" s="2">
         <v>13</v>
       </c>
@@ -2043,7 +2031,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="B31" s="2">
         <v>14</v>
       </c>
@@ -2058,7 +2046,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" s="2">
         <v>15</v>
       </c>
@@ -2073,7 +2061,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" s="2">
         <v>16</v>
       </c>
@@ -2088,7 +2076,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" s="2">
         <v>17</v>
       </c>
@@ -2103,7 +2091,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" s="2">
         <v>18</v>
       </c>
@@ -2118,7 +2106,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" s="2">
         <v>19</v>
       </c>
@@ -2133,7 +2121,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" s="2">
         <v>20</v>
       </c>
@@ -2148,7 +2136,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" s="4">
         <v>21</v>
       </c>
@@ -2165,7 +2153,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" s="4">
         <v>22</v>
       </c>
@@ -2182,7 +2170,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" s="4">
         <v>23</v>
       </c>
@@ -2197,7 +2185,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" s="4">
         <v>24</v>
       </c>
@@ -2212,7 +2200,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" s="4">
         <v>25</v>
       </c>
@@ -2246,32 +2234,32 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:10" ht="23.45">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.45">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="18"/>
@@ -2283,7 +2271,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="23.45">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2296,7 +2284,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.9">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2360,7 +2348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.9">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2392,7 +2380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2422,7 +2410,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.15">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -2454,7 +2442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.9">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2486,7 +2474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.9">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -2534,32 +2522,32 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:10" ht="23.45">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.45">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="18"/>
@@ -2571,7 +2559,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="23.45">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2584,7 +2572,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.9">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -2646,7 +2634,7 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.9">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -2676,7 +2664,7 @@
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.9">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -2706,7 +2694,7 @@
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.9">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2736,7 +2724,7 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.9">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2766,7 +2754,7 @@
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.15">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2796,7 +2784,7 @@
       </c>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.9">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -2826,7 +2814,7 @@
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.15">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -2856,7 +2844,7 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="43.15">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2886,7 +2874,7 @@
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -2916,7 +2904,7 @@
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="43.15">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -2946,7 +2934,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="43.15">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -2992,32 +2980,32 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:10" ht="23.45">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.45">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="18"/>
@@ -3029,7 +3017,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="23.45">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3042,7 +3030,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
@@ -3074,7 +3062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.9">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -3104,7 +3092,7 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.9">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3134,7 +3122,7 @@
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.9">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3164,7 +3152,7 @@
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.9">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3194,7 +3182,7 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.9">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3224,7 +3212,7 @@
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.15">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3254,7 +3242,7 @@
       </c>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.9">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3284,7 +3272,7 @@
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.15">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3314,7 +3302,7 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="43.15">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3344,7 +3332,7 @@
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3374,7 +3362,7 @@
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="43.15">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3404,7 +3392,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="43.15">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3449,36 +3437,36 @@
   </sheetPr>
   <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="10" max="10" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:10" ht="23.45">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" ht="23.45">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="18"/>
@@ -3490,7 +3478,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="23.45">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3503,7 +3491,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
@@ -3535,11 +3523,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.9">
       <c r="A7" s="2">
         <v>19</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="40">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3557,7 +3545,7 @@
       <c r="G7" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="39" t="s">
         <v>150</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -3565,11 +3553,11 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.9">
       <c r="A8" s="2">
         <v>20</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="40">
         <v>23</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -3584,22 +3572,22 @@
       <c r="F8" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>153</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>85</v>
+      <c r="I8" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.9">
       <c r="A9" s="2">
         <v>21</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="40">
         <v>23</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -3620,16 +3608,16 @@
       <c r="H9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>85</v>
+      <c r="I9" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="2">
         <v>22</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -3655,11 +3643,11 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.9">
       <c r="A11" s="4">
         <v>23</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -3685,14 +3673,14 @@
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.15">
       <c r="A12" s="27">
         <v>24</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -3717,14 +3705,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.9">
       <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D13" t="s">
@@ -3747,14 +3735,14 @@
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.15">
       <c r="A14" s="2">
         <v>26</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="23" t="s">
@@ -3769,7 +3757,7 @@
       <c r="G14" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="23" t="s">
         <v>173</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -3777,17 +3765,17 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="57.6">
       <c r="A15" s="2">
         <v>27</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>174</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -3807,11 +3795,11 @@
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="43.15">
       <c r="A16" s="2">
         <v>28</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="40">
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3832,16 +3820,16 @@
       <c r="H16" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="2" t="s">
         <v>73</v>
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="43.15">
       <c r="A17" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="40">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3867,11 +3855,11 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45.75">
       <c r="A18" s="2">
         <v>30</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="40">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3897,11 +3885,11 @@
       </c>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="43.15">
       <c r="A19" s="2">
         <v>31</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="40">
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3927,11 +3915,11 @@
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="86.45">
       <c r="A20" s="2">
         <v>32</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="40">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3946,7 +3934,7 @@
       <c r="F20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>193</v>
       </c>
       <c r="H20" s="23" t="s">
@@ -3957,10 +3945,10 @@
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="B22"/>
     </row>
   </sheetData>
